--- a/cop.xlsx
+++ b/cop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\projects\rio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C51875-C757-4A53-A04D-C85866BBB10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D51505F-2A43-4524-9AF8-27B5A770F37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="3" xr2:uid="{F9F314B7-6D40-4817-9754-7DCE7E407309}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="212">
   <si>
     <t>Team A</t>
   </si>
@@ -682,6 +682,24 @@
   </si>
   <si>
     <t>2.5 Low</t>
+  </si>
+  <si>
+    <t>IEM Katowice 2024 Play-In</t>
+  </si>
+  <si>
+    <t>IEM Katowice 2024 Group A</t>
+  </si>
+  <si>
+    <t>IEM Katowice 2024 Group B</t>
+  </si>
+  <si>
+    <t>IEM Katowice 2024 Playoffs</t>
+  </si>
+  <si>
+    <t>Rebels Gaming</t>
+  </si>
+  <si>
+    <t>Rooster</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1570,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E12C0A0-E6A8-49F9-8F65-2EAEC2E51C81}" name="Stages" displayName="Stages" ref="A1:A7" totalsRowShown="0">
-  <autoFilter ref="A1:A7" xr:uid="{9E12C0A0-E6A8-49F9-8F65-2EAEC2E51C81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9E12C0A0-E6A8-49F9-8F65-2EAEC2E51C81}" name="Stages" displayName="Stages" ref="A1:A11" totalsRowShown="0">
+  <autoFilter ref="A1:A11" xr:uid="{9E12C0A0-E6A8-49F9-8F65-2EAEC2E51C81}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{052A5067-C989-4356-BD20-9ECD719217F8}" name="Stages"/>
   </tableColumns>
@@ -1562,8 +1580,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51709671-1780-4B14-A0C4-15FB2CAF85FA}" name="Teams" displayName="Teams" ref="A1:E57" totalsRowShown="0">
-  <autoFilter ref="A1:E57" xr:uid="{51709671-1780-4B14-A0C4-15FB2CAF85FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{51709671-1780-4B14-A0C4-15FB2CAF85FA}" name="Teams" displayName="Teams" ref="A1:E60" totalsRowShown="0">
+  <autoFilter ref="A1:E60" xr:uid="{51709671-1780-4B14-A0C4-15FB2CAF85FA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
     <sortCondition ref="A1:A57"/>
   </sortState>
@@ -1587,10 +1605,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73BD6481-A656-4078-90F9-F3EDC3F18A39}" name="Matches" displayName="Matches" ref="A1:K105" totalsRowShown="0">
-  <autoFilter ref="A1:K105" xr:uid="{73BD6481-A656-4078-90F9-F3EDC3F18A39}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K172">
-    <sortCondition ref="C1:C172"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73BD6481-A656-4078-90F9-F3EDC3F18A39}" name="Matches" displayName="Matches" ref="A1:K154" totalsRowShown="0">
+  <autoFilter ref="A1:K154" xr:uid="{73BD6481-A656-4078-90F9-F3EDC3F18A39}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K220">
+    <sortCondition ref="C1:C220"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{76A353A8-431E-4999-BABC-C911D92A7662}" name="Stage"/>
@@ -2572,7 +2590,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,6 +2631,26 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -2633,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568B7D5C-F82B-4AF6-968F-B7E79A945F11}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2730,19 +2768,19 @@
       </c>
       <c r="B5">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E5" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1.2222222222222221</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2751,7 +2789,7 @@
       </c>
       <c r="B6">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
@@ -2759,11 +2797,11 @@
       </c>
       <c r="D6" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E6" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.74444444444444446</v>
+        <v>1.7444444444444445</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2814,7 +2852,7 @@
       </c>
       <c r="B9">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
@@ -2822,7 +2860,7 @@
       </c>
       <c r="D9" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E9" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
@@ -2856,19 +2894,19 @@
       </c>
       <c r="B11">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="E11" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.75543478260869557</v>
+        <v>1.5525362318840576</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,19 +2915,19 @@
       </c>
       <c r="B12">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E12" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.83218916857360781</v>
+        <v>1.1655225019069411</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2919,11 +2957,11 @@
       </c>
       <c r="B14">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D14" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
@@ -2931,7 +2969,7 @@
       </c>
       <c r="E14" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1.5277777777777777</v>
+        <v>3.7182539682539684</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2961,19 +2999,19 @@
       </c>
       <c r="B16">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.6</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="E16" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1</v>
+        <v>3.5151515151515147</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3003,19 +3041,19 @@
       </c>
       <c r="B18">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D18" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E18" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.33333333333333326</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,19 +3062,19 @@
       </c>
       <c r="B19">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E19" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>2.668421052631579</v>
+        <v>6.0017543859649116</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3066,7 +3104,7 @@
       </c>
       <c r="B21">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
@@ -3074,11 +3112,11 @@
       </c>
       <c r="D21" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E21" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.6455862977602107</v>
+        <v>1.0455862977602106</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3087,19 +3125,19 @@
       </c>
       <c r="B22">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E22" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.72844827586206895</v>
+        <v>1.0617816091954022</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3108,19 +3146,19 @@
       </c>
       <c r="B23">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E23" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.43508771929824563</v>
+        <v>2.2321891685736075</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3171,19 +3209,19 @@
       </c>
       <c r="B26">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D26" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.6</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="E26" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3339,19 +3377,19 @@
       </c>
       <c r="B34">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C34">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="E34" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1.4221014492753621</v>
+        <v>2.4221014492753623</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,19 +3419,19 @@
       </c>
       <c r="B36">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C36">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E36" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.69696969696969702</v>
+        <v>2.6969696969696964</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3402,19 +3440,19 @@
       </c>
       <c r="B37">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.66666666666666663</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="E37" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.41991341991342002</v>
+        <v>1.41991341991342</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3444,19 +3482,19 @@
       </c>
       <c r="B39">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C39">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="E39" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>1.9398496240601504</v>
+        <v>2.6065162907268169</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3696,19 +3734,19 @@
       </c>
       <c r="B51">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D51" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="E51" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>3.083333333333333</v>
+        <v>7.083333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -3717,19 +3755,19 @@
       </c>
       <c r="B52">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E52" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>2.0588235294117645</v>
+        <v>3.3921568627450975</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3780,7 +3818,7 @@
       </c>
       <c r="B55">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C55">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
@@ -3788,11 +3826,11 @@
       </c>
       <c r="D55" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="E55" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>2.6916666666666664</v>
+        <v>3.3583333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3801,19 +3839,19 @@
       </c>
       <c r="B56">
         <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="9">
         <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E56" s="1">
         <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
-        <v>0.99342105263157898</v>
+        <v>1.3267543859649122</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3838,13 +3876,67 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="1"/>
+      <c r="A58" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="11">
+        <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
+        <v>5</v>
+      </c>
+      <c r="C58" s="11">
+        <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="9">
+        <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="E58" s="1">
+        <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
+        <v>2.333333333333333</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="1"/>
+      <c r="A59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="11">
+        <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
+        <v>3</v>
+      </c>
+      <c r="C59" s="11">
+        <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
+        <v>1</v>
+      </c>
+      <c r="D59" s="9">
+        <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E59" s="1">
+        <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
+        <v>0.33333333333333326</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="1"/>
+      <c r="A60" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="11">
+        <f>COUNTIF(Matches[[Team A]:[Team B]], Teams[[#This Row],[Teams]])</f>
+        <v>2</v>
+      </c>
+      <c r="C60" s="11">
+        <f>COUNTIF(Matches[Winner],Teams[[#This Row],[Teams]])</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="9">
+        <f>Teams[[#This Row],[Wins]]/Teams[[#This Row],[Matches]]</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <f>SUMIF(Matches[Team A],Teams[[#This Row],[Teams]],Matches[Score])</f>
+        <v>0.52941176470588225</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E61" s="1"/>
@@ -3858,26 +3950,22 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="1"/>
     </row>
   </sheetData>
@@ -3890,23 +3978,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB829DCB-0610-4E6A-A796-84D5BBB243AB}">
-  <dimension ref="A1:P174"/>
+  <dimension ref="A1:P223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="8.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" style="1" customWidth="1"/>
@@ -3951,309 +4039,309 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
       </c>
       <c r="C2" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
         <v>13</v>
       </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
       <c r="H2">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I2" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FaZe</v>
-      </c>
-      <c r="J2" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>9Pandas</v>
+      <c r="I2" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rebels Gaming</v>
+      </c>
+      <c r="J2" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
       </c>
       <c r="K2" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>0.13043478260869557</v>
       </c>
       <c r="O2"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
       </c>
       <c r="C3" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I3" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>VP</v>
-      </c>
-      <c r="J3" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>SAW</v>
+      <c r="I3" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>EF</v>
+      </c>
+      <c r="J3" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BetBoom</v>
       </c>
       <c r="K3" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>0.85714285714285721</v>
       </c>
       <c r="O3"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
       </c>
       <c r="C4" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>13</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I4" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NAVI</v>
-      </c>
-      <c r="J4" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>KOI</v>
+      <c r="I4" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J4" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
       </c>
       <c r="K4" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.23809523809523814</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="O4"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
       </c>
       <c r="C5" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D5" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
         <v>13</v>
       </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
       <c r="H5">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I5" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>G2</v>
-      </c>
-      <c r="J5" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ITB</v>
+      <c r="I5" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BIG</v>
+      </c>
+      <c r="J5" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
       </c>
       <c r="K5" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.625</v>
+        <v>0.18181818181818188</v>
       </c>
       <c r="O5"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
       </c>
       <c r="C6" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I6" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>EF</v>
-      </c>
-      <c r="J6" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NIP</v>
+      <c r="I6" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>The MongolZ</v>
+      </c>
+      <c r="J6" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FURIA</v>
       </c>
       <c r="K6" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="O6"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
       </c>
       <c r="C7" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I7" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENTERPRISE</v>
-      </c>
-      <c r="J7" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>AMKAL</v>
+      <c r="I7" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J7" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
       </c>
       <c r="K7" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>1</v>
       </c>
       <c r="O7"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
       </c>
       <c r="C8" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Fnatic</v>
-      </c>
-      <c r="J8" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BetBoom</v>
+      <c r="I8" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="J8" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
       </c>
       <c r="K8" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>0.13043478260869557</v>
       </c>
       <c r="O8"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>203</v>
       </c>
       <c r="C9" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -4262,367 +4350,367 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I9" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Falcons</v>
-      </c>
-      <c r="J9" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>3DMAX</v>
+      <c r="I9" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>VP</v>
+      </c>
+      <c r="J9" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rooster</v>
       </c>
       <c r="K9" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.23809523809523814</v>
+        <v>0.52941176470588225</v>
       </c>
       <c r="O9"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C10" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I10" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FaZe</v>
-      </c>
-      <c r="J10" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Falcons</v>
+        <v>3</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
+      </c>
+      <c r="J10" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BetBoom</v>
       </c>
       <c r="K10" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.30000000000000004</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O10"/>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C11" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I11" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>G2</v>
-      </c>
-      <c r="J11" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>EF</v>
+        <v>3</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J11" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
       </c>
       <c r="K11" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.10344827586206895</v>
+        <v>1</v>
       </c>
       <c r="O11"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C12" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I12" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>VP</v>
-      </c>
-      <c r="J12" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Fnatic</v>
+        <v>3</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
+      </c>
+      <c r="J12" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FURIA</v>
       </c>
       <c r="K12" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.625</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O12"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C13" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="F13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I13" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NAVI</v>
-      </c>
-      <c r="J13" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENTERPRISE</v>
+        <v>3</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
+      </c>
+      <c r="J13" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rooster</v>
       </c>
       <c r="K13" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>1</v>
       </c>
       <c r="O13"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="F14">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I14" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>AMKAL</v>
-      </c>
-      <c r="J14" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NIP</v>
+        <v>3</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>EF</v>
+      </c>
+      <c r="J14" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rebels Gaming</v>
       </c>
       <c r="K14" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>4.7619047619047672E-2</v>
+        <v>1</v>
       </c>
       <c r="O14"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2">
-        <v>45336</v>
+        <v>45322</v>
       </c>
       <c r="D15" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
-        <v>149</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I15" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>9Pandas</v>
-      </c>
-      <c r="J15" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>SAW</v>
+        <v>3</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J15" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BIG</v>
       </c>
       <c r="K15" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.85714285714285721</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O15"/>
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D16" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I16" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BetBoom</v>
-      </c>
-      <c r="J16" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ITB</v>
+        <v>3</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J16" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>The MongolZ</v>
       </c>
       <c r="K16" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.85714285714285721</v>
+        <v>1</v>
       </c>
       <c r="O16"/>
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2">
-        <v>45336</v>
+        <v>45323</v>
       </c>
       <c r="D17" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I17" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>KOI</v>
-      </c>
-      <c r="J17" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>3DMAX</v>
+        <v>3</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="J17" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>VP</v>
       </c>
       <c r="K17" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.23809523809523814</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O17"/>
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -4631,39 +4719,39 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I18" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>G2</v>
-      </c>
-      <c r="J18" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FaZe</v>
+      <c r="I18" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
+      </c>
+      <c r="J18" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>VP</v>
       </c>
       <c r="K18" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O18"/>
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>2</v>
@@ -4672,244 +4760,244 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I19" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>VP</v>
-      </c>
-      <c r="J19" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NAVI</v>
+      <c r="I19" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J19" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>The MongolZ</v>
       </c>
       <c r="K19" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O19"/>
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C20" s="2">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I20" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>EF</v>
-      </c>
-      <c r="J20" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Falcons</v>
+        <v>3</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
+      </c>
+      <c r="J20" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BIG</v>
       </c>
       <c r="K20" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.44444444444444442</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O20"/>
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2">
-        <v>45337</v>
+        <v>45324</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I21" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>KOI</v>
-      </c>
-      <c r="J21" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>9Pandas</v>
+        <v>3</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rebels Gaming</v>
+      </c>
+      <c r="J21" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
       </c>
       <c r="K21" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
+        <v>1</v>
       </c>
       <c r="O21"/>
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>210</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="11" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BetBoom</v>
-      </c>
-      <c r="J22" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENTERPRISE</v>
+        <v>FaZe</v>
+      </c>
+      <c r="J22" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rebels Gaming</v>
       </c>
       <c r="K22" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
+        <v>1</v>
       </c>
       <c r="O22"/>
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="D23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="11" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Fnatic</v>
-      </c>
-      <c r="J23" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>AMKAL</v>
+        <v>EF</v>
+      </c>
+      <c r="J23" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
       </c>
       <c r="K23" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
+        <v>1</v>
       </c>
       <c r="O23"/>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C24" s="2">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I24" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>SAW</v>
-      </c>
-      <c r="J24" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NIP</v>
+      <c r="I24" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J24" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NAVI</v>
       </c>
       <c r="K24" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O24"/>
       <c r="P24" s="1"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2">
-        <v>45337</v>
+        <v>45325</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -4918,39 +5006,39 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I25" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>3DMAX</v>
-      </c>
-      <c r="J25" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ITB</v>
+      <c r="I25" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
+      </c>
+      <c r="J25" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
       </c>
       <c r="K25" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>1</v>
       </c>
       <c r="O25"/>
       <c r="P25" s="1"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2">
-        <v>45338</v>
+        <v>45326</v>
       </c>
       <c r="D26" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4959,77 +5047,77 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I26" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>KOI</v>
-      </c>
-      <c r="J26" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Fnatic</v>
+      <c r="I26" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
+      </c>
+      <c r="J26" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Rebels Gaming</v>
       </c>
       <c r="K26" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O26"/>
       <c r="P26" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2">
-        <v>45338</v>
+        <v>45326</v>
       </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I27" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FaZe</v>
-      </c>
-      <c r="J27" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>EF</v>
+      <c r="I27" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NAVI</v>
+      </c>
+      <c r="J27" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
       </c>
       <c r="K27" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O27"/>
       <c r="P27" s="1"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2">
-        <v>45338</v>
+        <v>45326</v>
       </c>
       <c r="D28" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -5041,13 +5129,13 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I28" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NAVI</v>
-      </c>
-      <c r="J28" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BetBoom</v>
+      <c r="I28" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
+      </c>
+      <c r="J28" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>EF</v>
       </c>
       <c r="K28" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
@@ -5058,78 +5146,78 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C29" s="2">
-        <v>45338</v>
+        <v>45326</v>
       </c>
       <c r="D29" t="s">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I29" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>AMKAL</v>
-      </c>
-      <c r="J29" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Falcons</v>
+      <c r="I29" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J29" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
       </c>
       <c r="K29" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>1</v>
       </c>
       <c r="O29"/>
       <c r="P29" s="1"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2">
-        <v>45338</v>
+        <v>45327</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
       <c r="H30">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I30" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>9Pandas</v>
-      </c>
-      <c r="J30" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>3DMAX</v>
+      <c r="I30" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
+      </c>
+      <c r="J30" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
       </c>
       <c r="K30" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
@@ -5140,22 +5228,22 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2">
-        <v>45338</v>
+        <v>45327</v>
       </c>
       <c r="D31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>2</v>
@@ -5164,39 +5252,39 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I31" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>SAW</v>
-      </c>
-      <c r="J31" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENTERPRISE</v>
+      <c r="I31" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NAVI</v>
+      </c>
+      <c r="J31" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>EF</v>
       </c>
       <c r="K31" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O31"/>
       <c r="P31" s="1"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>173</v>
       </c>
       <c r="C32" s="2">
-        <v>45339</v>
+        <v>45328</v>
       </c>
       <c r="D32" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -5205,54 +5293,54 @@
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I32" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>AMKAL</v>
-      </c>
-      <c r="J32" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>9Pandas</v>
+      <c r="I32" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J32" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
       </c>
       <c r="K32" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>1</v>
       </c>
       <c r="O32"/>
       <c r="P32" s="1"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
+        <v>207</v>
+      </c>
+      <c r="B33" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="2">
-        <v>45339</v>
+        <v>45328</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
       <c r="H33">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I33" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>SAW</v>
-      </c>
-      <c r="J33" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Fnatic</v>
+      <c r="I33" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
+      </c>
+      <c r="J33" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NAVI</v>
       </c>
       <c r="K33" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
@@ -5263,804 +5351,804 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
+        <v>208</v>
+      </c>
+      <c r="B34" t="s">
+        <v>203</v>
       </c>
       <c r="C34" s="2">
-        <v>45339</v>
+        <v>45325</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
       <c r="H34">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
-      <c r="I34" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>EF</v>
-      </c>
-      <c r="J34" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BetBoom</v>
+      <c r="I34" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J34" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Vitality</v>
       </c>
       <c r="K34" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O34"/>
       <c r="P34" s="1"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B35" t="s">
+        <v>203</v>
       </c>
       <c r="C35" s="2">
-        <v>45341</v>
+        <v>45325</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>2</v>
       </c>
       <c r="H35">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I35" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Vitality</v>
-      </c>
-      <c r="J35" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>GL</v>
+        <v>3</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
+      </c>
+      <c r="J35" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
       </c>
       <c r="K35" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.73333333333333339</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O35"/>
       <c r="P35" s="1"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>158</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
       <c r="C36" s="2">
-        <v>45341</v>
+        <v>45325</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>179</v>
+        <v>31</v>
       </c>
       <c r="F36">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H36">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I36" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Guild.E</v>
-      </c>
-      <c r="J36" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Mouz</v>
+        <v>3</v>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="J36" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
       </c>
       <c r="K36" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>1</v>
       </c>
       <c r="O36"/>
       <c r="P36" s="1"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B37" t="s">
+        <v>203</v>
       </c>
       <c r="C37" s="2">
-        <v>45341</v>
+        <v>45325</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="F37">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I37" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Spirit</v>
-      </c>
-      <c r="J37" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENCE</v>
+        <v>3</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Mouz</v>
+      </c>
+      <c r="J37" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
       </c>
       <c r="K37" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O37"/>
       <c r="P37" s="1"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B38" t="s">
+        <v>204</v>
       </c>
       <c r="C38" s="2">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H38">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I38" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ECSTATIC</v>
-      </c>
-      <c r="J38" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Monte</v>
+        <v>3</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J38" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Vitality</v>
       </c>
       <c r="K38" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O38"/>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B39" t="s">
+        <v>204</v>
       </c>
       <c r="C39" s="2">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I39" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Apeks</v>
-      </c>
-      <c r="J39" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>OG</v>
+        <v>3</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
+      </c>
+      <c r="J39" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
       </c>
       <c r="K39" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="O39"/>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>158</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
       </c>
       <c r="C40" s="2">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I40" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>C9</v>
-      </c>
-      <c r="J40" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Pera</v>
+        <v>3</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J40" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
       </c>
       <c r="K40" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O40"/>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
+        <v>171</v>
       </c>
       <c r="C41" s="2">
-        <v>45341</v>
+        <v>45326</v>
       </c>
       <c r="D41" t="s">
-        <v>146</v>
+        <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F41">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I41" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Astralis</v>
-      </c>
-      <c r="J41" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Nexus</v>
+        <v>3</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Mouz</v>
+      </c>
+      <c r="J41" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
       </c>
       <c r="K41" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.44444444444444442</v>
+        <v>1</v>
       </c>
       <c r="O41"/>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>172</v>
       </c>
       <c r="C42" s="2">
-        <v>45341</v>
+        <v>45327</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
       <c r="E42" t="s">
         <v>21</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H42">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I42" t="str">
+        <v>3</v>
+      </c>
+      <c r="I42" s="11" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>HEROIC</v>
       </c>
-      <c r="J42" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Preasy</v>
+      <c r="J42" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
       </c>
       <c r="K42" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O42"/>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C43" s="2">
-        <v>45341</v>
+        <v>45327</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I43" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>C9</v>
-      </c>
-      <c r="J43" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Apeks</v>
+        <v>3</v>
+      </c>
+      <c r="I43" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
+      </c>
+      <c r="J43" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
       </c>
       <c r="K43" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O43"/>
       <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2">
-        <v>45341</v>
+        <v>45328</v>
       </c>
       <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
         <v>178</v>
       </c>
-      <c r="E44" t="s">
-        <v>145</v>
-      </c>
       <c r="F44">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I44" t="str">
+        <v>3</v>
+      </c>
+      <c r="I44" s="11" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Mouz</v>
       </c>
-      <c r="J44" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ECSTATIC</v>
+      <c r="J44" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
       </c>
       <c r="K44" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.23809523809523814</v>
+        <v>1</v>
       </c>
       <c r="O44"/>
       <c r="P44" s="1"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C45" s="2">
-        <v>45341</v>
+        <v>45328</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="F45">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I45" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Vitality</v>
-      </c>
-      <c r="J45" s="8" t="str">
+        <v>3</v>
+      </c>
+      <c r="I45" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
+      </c>
+      <c r="J45" s="11" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>HEROIC</v>
       </c>
       <c r="K45" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="O45"/>
       <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>158</v>
-      </c>
-      <c r="B46" t="s">
-        <v>171</v>
+        <v>209</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>45341</v>
+        <v>45331</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F46">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I46" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Spirit</v>
-      </c>
-      <c r="J46" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Astralis</v>
+        <v>3</v>
+      </c>
+      <c r="I46" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
+      </c>
+      <c r="J46" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
       </c>
       <c r="K46" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.33333333333333326</v>
       </c>
       <c r="O46"/>
       <c r="P46" s="1"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>158</v>
-      </c>
-      <c r="B47" t="s">
-        <v>172</v>
+        <v>209</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>45341</v>
+        <v>45331</v>
       </c>
       <c r="D47" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="E47" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H47">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I47" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENCE</v>
-      </c>
-      <c r="J47" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Guild.E</v>
+        <v>3</v>
+      </c>
+      <c r="I47" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
+      </c>
+      <c r="J47" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
       </c>
       <c r="K47" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>1</v>
       </c>
       <c r="O47"/>
       <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>158</v>
-      </c>
-      <c r="B48" t="s">
-        <v>172</v>
+        <v>209</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
       </c>
       <c r="C48" s="2">
-        <v>45341</v>
+        <v>45332</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E48" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="F48">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I48" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>GL</v>
-      </c>
-      <c r="J48" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Pera</v>
+        <v>3</v>
+      </c>
+      <c r="I48" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J48" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Falcons</v>
       </c>
       <c r="K48" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
+        <v>1</v>
       </c>
       <c r="O48"/>
       <c r="P48" s="1"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" t="s">
-        <v>172</v>
+        <v>209</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
       </c>
       <c r="C49" s="2">
-        <v>45341</v>
+        <v>45332</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H49">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I49" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>OG</v>
-      </c>
-      <c r="J49" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Preasy</v>
+        <v>3</v>
+      </c>
+      <c r="I49" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
+      </c>
+      <c r="J49" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Mouz</v>
       </c>
       <c r="K49" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>1</v>
       </c>
       <c r="O49"/>
       <c r="P49" s="1"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" t="s">
-        <v>172</v>
+        <v>209</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
       </c>
       <c r="C50" s="2">
-        <v>45341</v>
+        <v>45333</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>42</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>1</v>
       </c>
-      <c r="I50" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Monte</v>
-      </c>
-      <c r="J50" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Nexus</v>
+      <c r="I50" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J50" s="11" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
       </c>
       <c r="K50" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
+        <v>1</v>
       </c>
       <c r="O50"/>
       <c r="P50" s="1"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B51" t="s">
-        <v>173</v>
+        <v>157</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I51" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>C9</v>
+        <v>FaZe</v>
       </c>
       <c r="J51" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Vitality</v>
+        <v>9Pandas</v>
       </c>
       <c r="K51" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>0.36842105263157898</v>
       </c>
       <c r="O51"/>
       <c r="P51" s="1"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>158</v>
-      </c>
-      <c r="B52" t="s">
-        <v>173</v>
+        <v>157</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D52" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H52">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Mouz</v>
+        <v>VP</v>
       </c>
       <c r="J52" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Spirit</v>
+        <v>SAW</v>
       </c>
       <c r="K52" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
+        <v>0.36842105263157898</v>
       </c>
       <c r="O52"/>
       <c r="P52" s="1"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
       </c>
       <c r="C53" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="F53">
         <v>13</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H53">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -6068,40 +6156,40 @@
       </c>
       <c r="I53" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Apeks</v>
+        <v>NAVI</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Monte</v>
+        <v>KOI</v>
       </c>
       <c r="K53" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.44444444444444442</v>
+        <v>0.23809523809523814</v>
       </c>
       <c r="O53"/>
       <c r="P53" s="1"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F54">
         <v>13</v>
       </c>
       <c r="G54">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -6109,40 +6197,40 @@
       </c>
       <c r="I54" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ECSTATIC</v>
+        <v>G2</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>OG</v>
+        <v>ITB</v>
       </c>
       <c r="K54" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
+        <v>0.625</v>
       </c>
       <c r="O54"/>
       <c r="P54" s="1"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B55" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H55">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -6150,37 +6238,37 @@
       </c>
       <c r="I55" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENCE</v>
+        <v>EF</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>GL</v>
+        <v>NIP</v>
       </c>
       <c r="K55" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>6.6666666666666652E-2</v>
+        <v>8.3333333333333259E-2</v>
       </c>
       <c r="O55"/>
       <c r="P55" s="1"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" t="s">
-        <v>174</v>
+        <v>157</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="E56" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="F56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56">
         <v>13</v>
@@ -6191,512 +6279,532 @@
       </c>
       <c r="I56" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>HEROIC</v>
+        <v>ENTERPRISE</v>
       </c>
       <c r="J56" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Astralis</v>
+        <v>AMKAL</v>
       </c>
       <c r="K56" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.30000000000000004</v>
+        <v>0.18181818181818188</v>
       </c>
       <c r="O56"/>
       <c r="P56" s="1"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B57" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
       </c>
       <c r="C57" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D57" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E57" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H57">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I57" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Guild.E</v>
+        <v>Fnatic</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Nexus</v>
+        <v>BetBoom</v>
       </c>
       <c r="K57" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>0.36842105263157898</v>
       </c>
       <c r="O57"/>
       <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
+        <v>157</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>45342</v>
+        <v>45336</v>
       </c>
       <c r="D58" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H58">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Preasy</v>
+        <v>Falcons</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Pera</v>
+        <v>3DMAX</v>
       </c>
       <c r="K58" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
+        <v>0.23809523809523814</v>
       </c>
       <c r="O58"/>
       <c r="P58" s="1"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C59" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="E59" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H59">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I59" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Apeks</v>
+        <v>FaZe</v>
       </c>
       <c r="J59" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ECSTATIC</v>
+        <v>Falcons</v>
       </c>
       <c r="K59" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O59"/>
+      <c r="P59" s="1"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C60" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H60">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Vitality</v>
+        <v>G2</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENCE</v>
+        <v>EF</v>
       </c>
       <c r="K60" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
+        <v>0.10344827586206895</v>
+      </c>
+      <c r="O60"/>
+      <c r="P60" s="1"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C61" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>168</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H61">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I61" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Spirit</v>
+        <v>VP</v>
       </c>
       <c r="J61" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>HEROIC</v>
+        <v>Fnatic</v>
       </c>
       <c r="K61" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
+        <v>0.625</v>
+      </c>
+      <c r="O61"/>
+      <c r="P61" s="1"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D62" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G62">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H62">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I62" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Astralis</v>
+        <v>NAVI</v>
       </c>
       <c r="J62" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Monte</v>
+        <v>ENTERPRISE</v>
       </c>
       <c r="K62" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="O62"/>
+      <c r="P62" s="1"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C63" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H63">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I63" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>GL</v>
+        <v>AMKAL</v>
       </c>
       <c r="J63" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>OG</v>
+        <v>NIP</v>
       </c>
       <c r="K63" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="O63"/>
+      <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C64" s="2">
-        <v>45343</v>
+        <v>45336</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="F64">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I64" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>9Pandas</v>
+      </c>
+      <c r="J64" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>SAW</v>
+      </c>
+      <c r="K64" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="O64"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D65" t="s">
+        <v>167</v>
+      </c>
+      <c r="E65" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I65" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BetBoom</v>
+      </c>
+      <c r="J65" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ITB</v>
+      </c>
+      <c r="K65" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.85714285714285721</v>
+      </c>
+      <c r="O65"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>169</v>
+      </c>
+      <c r="E66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>13</v>
+      </c>
+      <c r="H66">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I66" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>KOI</v>
+      </c>
+      <c r="J66" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>3DMAX</v>
+      </c>
+      <c r="K66" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.23809523809523814</v>
+      </c>
+      <c r="O66"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D67" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" t="s">
+        <v>144</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>2</v>
       </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I64" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Guild.E</v>
-      </c>
-      <c r="J64" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Preasy</v>
-      </c>
-      <c r="K64" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>158</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65" s="2">
-        <v>45344</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" t="s">
-        <v>146</v>
-      </c>
-      <c r="F65">
+      <c r="H67">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I67" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>G2</v>
+      </c>
+      <c r="J67" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FaZe</v>
+      </c>
+      <c r="K67" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+      <c r="O67"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
+        <v>161</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>2</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I65" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ENCE</v>
-      </c>
-      <c r="J65" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Astralis</v>
-      </c>
-      <c r="K65" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>158</v>
-      </c>
-      <c r="B66">
-        <v>5</v>
-      </c>
-      <c r="C66" s="2">
-        <v>45344</v>
-      </c>
-      <c r="D66" t="s">
-        <v>145</v>
-      </c>
-      <c r="E66" t="s">
-        <v>179</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I66" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ECSTATIC</v>
-      </c>
-      <c r="J66" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Guild.E</v>
-      </c>
-      <c r="K66" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-      <c r="C67" s="2">
-        <v>45344</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="F67">
-        <v>2</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I67" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>HEROIC</v>
-      </c>
-      <c r="J67" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>GL</v>
-      </c>
-      <c r="K67" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>159</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" t="s">
-        <v>154</v>
-      </c>
-      <c r="F68">
-        <v>13</v>
-      </c>
-      <c r="G68">
-        <v>9</v>
-      </c>
       <c r="H68">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FURIA</v>
+        <v>VP</v>
       </c>
       <c r="J68" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Nouns</v>
+        <v>NAVI</v>
       </c>
       <c r="K68" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O68"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
       </c>
       <c r="C69" s="2">
-        <v>45352</v>
+        <v>45337</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="F69">
         <v>13</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H69">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -6704,74 +6812,78 @@
       </c>
       <c r="I69" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>COL</v>
+        <v>EF</v>
       </c>
       <c r="J69" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Elevate</v>
+        <v>Falcons</v>
       </c>
       <c r="K69" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O69"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
       </c>
       <c r="C70" s="2">
-        <v>45352</v>
+        <v>45337</v>
       </c>
       <c r="D70" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E70" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70">
         <v>13</v>
       </c>
-      <c r="G70">
+      <c r="H70">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I70" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>KOI</v>
+      </c>
+      <c r="J70" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>9Pandas</v>
+      </c>
+      <c r="K70" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="O70"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71">
         <v>10</v>
-      </c>
-      <c r="H70">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I70" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>M80</v>
-      </c>
-      <c r="J70" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ODDIK</v>
-      </c>
-      <c r="K70" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>159</v>
-      </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D71" t="s">
-        <v>153</v>
-      </c>
-      <c r="E71" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71">
-        <v>9</v>
       </c>
       <c r="G71">
         <v>13</v>
@@ -6782,386 +6894,406 @@
       </c>
       <c r="I71" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BOSS</v>
+        <v>BetBoom</v>
       </c>
       <c r="J71" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>MIBR</v>
+        <v>ENTERPRISE</v>
       </c>
       <c r="K71" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.18181818181818188</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.13043478260869557</v>
+      </c>
+      <c r="O71"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>159</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>174</v>
       </c>
       <c r="C72" s="2">
-        <v>45352</v>
+        <v>45337</v>
       </c>
       <c r="D72" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="E72" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F72">
         <v>13</v>
       </c>
       <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I72" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Fnatic</v>
+      </c>
+      <c r="J72" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>AMKAL</v>
+      </c>
+      <c r="K72" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="O72"/>
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45337</v>
+      </c>
+      <c r="D73" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73">
         <v>2</v>
       </c>
-      <c r="H72">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
-      </c>
-      <c r="I72" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>paiN</v>
-      </c>
-      <c r="J72" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Legacy</v>
-      </c>
-      <c r="K72" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" s="2">
-        <v>45352</v>
-      </c>
-      <c r="D73" t="s">
-        <v>190</v>
-      </c>
-      <c r="E73" t="s">
-        <v>191</v>
-      </c>
-      <c r="F73">
-        <v>13</v>
-      </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>RED</v>
+        <v>SAW</v>
       </c>
       <c r="J73" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Wildcard</v>
+        <v>NIP</v>
       </c>
       <c r="K73" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.85714285714285721</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O73"/>
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B74" t="s">
+        <v>175</v>
       </c>
       <c r="C74" s="2">
-        <v>45352</v>
+        <v>45337</v>
       </c>
       <c r="D74" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H74">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I74" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Liquid</v>
+        <v>3DMAX</v>
       </c>
       <c r="J74" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BESTIA</v>
+        <v>ITB</v>
       </c>
       <c r="K74" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>8.3333333333333259E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O74"/>
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>159</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
+        <v>157</v>
+      </c>
+      <c r="B75" t="s">
+        <v>176</v>
       </c>
       <c r="C75" s="2">
-        <v>45352</v>
+        <v>45338</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="F75">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I75" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Imperial</v>
+        <v>KOI</v>
       </c>
       <c r="J75" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NRG</v>
+        <v>Fnatic</v>
       </c>
       <c r="K75" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.73333333333333339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O75"/>
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C76" s="2">
-        <v>45353</v>
+        <v>45338</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F76">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H76">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I76" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>COL</v>
+        <v>FaZe</v>
       </c>
       <c r="J76" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BOSS</v>
+        <v>EF</v>
       </c>
       <c r="K76" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O76"/>
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C77" s="2">
-        <v>45353</v>
+        <v>45338</v>
       </c>
       <c r="D77" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="F77">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H77">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I77" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>paiN</v>
+        <v>NAVI</v>
       </c>
       <c r="J77" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>RED</v>
+        <v>BetBoom</v>
       </c>
       <c r="K77" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O77"/>
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C78" s="2">
-        <v>45353</v>
+        <v>45338</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H78">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I78" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FURIA</v>
+        <v>AMKAL</v>
       </c>
       <c r="J78" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Liquid</v>
+        <v>Falcons</v>
       </c>
       <c r="K78" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.13043478260869557</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O78"/>
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C79" s="2">
-        <v>45353</v>
+        <v>45338</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H79">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I79" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Imperial</v>
+        <v>9Pandas</v>
       </c>
       <c r="J79" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>M80</v>
+        <v>3DMAX</v>
       </c>
       <c r="K79" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O79"/>
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C80" s="2">
-        <v>45353</v>
+        <v>45338</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="E80" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>2</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
       <c r="H80">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
         <v>3</v>
       </c>
       <c r="I80" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>MIBR</v>
+        <v>SAW</v>
       </c>
       <c r="J80" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>NRG</v>
+        <v>ENTERPRISE</v>
       </c>
       <c r="K80" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O80"/>
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B81" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
       </c>
       <c r="C81" s="2">
-        <v>45353</v>
+        <v>45339</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>2</v>
@@ -7172,35 +7304,37 @@
       </c>
       <c r="I81" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Wildcard</v>
+        <v>AMKAL</v>
       </c>
       <c r="J81" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BESTIA</v>
+        <v>9Pandas</v>
       </c>
       <c r="K81" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O81"/>
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
       </c>
       <c r="C82" s="2">
-        <v>45353</v>
+        <v>45339</v>
       </c>
       <c r="D82" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7211,38 +7345,40 @@
       </c>
       <c r="I82" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Legacy</v>
+        <v>SAW</v>
       </c>
       <c r="J82" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Nouns</v>
+        <v>Fnatic</v>
       </c>
       <c r="K82" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O82"/>
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" t="s">
-        <v>172</v>
+        <v>157</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
       </c>
       <c r="C83" s="2">
-        <v>45353</v>
+        <v>45339</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -7250,389 +7386,409 @@
       </c>
       <c r="I83" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ODDIK</v>
+        <v>EF</v>
       </c>
       <c r="J83" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Elevate</v>
+        <v>BetBoom</v>
       </c>
       <c r="K83" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="O83"/>
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" t="s">
-        <v>173</v>
+        <v>158</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
       </c>
       <c r="C84" s="2">
-        <v>45354</v>
+        <v>45341</v>
       </c>
       <c r="D84" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84">
         <v>13</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Imperial</v>
+        <v>Vitality</v>
       </c>
       <c r="J84" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>paiN</v>
+        <v>GL</v>
       </c>
       <c r="K84" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="O84"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>159</v>
-      </c>
-      <c r="B85" t="s">
-        <v>173</v>
+        <v>158</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
       </c>
       <c r="C85" s="2">
-        <v>45354</v>
+        <v>45341</v>
       </c>
       <c r="D85" t="s">
+        <v>178</v>
+      </c>
+      <c r="E85" t="s">
+        <v>179</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="H85">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I85" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Guild.E</v>
+      </c>
+      <c r="J85" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Mouz</v>
+      </c>
+      <c r="K85" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O85"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>13</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I86" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J86" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="K86" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+      <c r="O86"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E87" t="s">
+        <v>145</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87">
+        <v>13</v>
+      </c>
+      <c r="H87">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I87" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ECSTATIC</v>
+      </c>
+      <c r="J87" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
+      </c>
+      <c r="K87" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O87"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D88" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <v>13</v>
+      </c>
+      <c r="G88">
+        <v>5</v>
+      </c>
+      <c r="H88">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I88" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
+      </c>
+      <c r="J88" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>OG</v>
+      </c>
+      <c r="K88" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O88"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D89" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89">
+        <v>13</v>
+      </c>
+      <c r="G89">
+        <v>3</v>
+      </c>
+      <c r="H89">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I89" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>C9</v>
+      </c>
+      <c r="J89" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Pera</v>
+      </c>
+      <c r="K89" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.625</v>
+      </c>
+      <c r="O89"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>158</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D90" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" t="s">
+        <v>182</v>
+      </c>
+      <c r="F90">
+        <v>13</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I90" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
+      </c>
+      <c r="J90" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Nexus</v>
+      </c>
+      <c r="K90" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O90"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>158</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91">
+        <v>13</v>
+      </c>
+      <c r="H91">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I91" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J91" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Preasy</v>
+      </c>
+      <c r="K91" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O91"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45341</v>
+      </c>
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+      <c r="G92">
         <v>10</v>
       </c>
-      <c r="E85" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I85" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>FURIA</v>
-      </c>
-      <c r="J85" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>COL</v>
-      </c>
-      <c r="K85" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>159</v>
-      </c>
-      <c r="B86" t="s">
-        <v>175</v>
-      </c>
-      <c r="C86" s="2">
-        <v>45354</v>
-      </c>
-      <c r="D86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E86" t="s">
-        <v>191</v>
-      </c>
-      <c r="F86">
-        <v>2</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I86" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>M80</v>
-      </c>
-      <c r="J86" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Wildcard</v>
-      </c>
-      <c r="K86" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" s="2">
-        <v>45354</v>
-      </c>
-      <c r="D87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E87" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I87" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Liquid</v>
-      </c>
-      <c r="J87" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>BOSS</v>
-      </c>
-      <c r="K87" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>159</v>
-      </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
-      <c r="C88" s="2">
-        <v>45354</v>
-      </c>
-      <c r="D88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E88" t="s">
-        <v>187</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>2</v>
-      </c>
-      <c r="H88">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I88" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ODDIK</v>
-      </c>
-      <c r="J88" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>RED</v>
-      </c>
-      <c r="K88" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>159</v>
-      </c>
-      <c r="B89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C89" s="2">
-        <v>45354</v>
-      </c>
-      <c r="D89" t="s">
-        <v>189</v>
-      </c>
-      <c r="E89" t="s">
-        <v>153</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I89" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Legacy</v>
-      </c>
-      <c r="J89" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>MIBR</v>
-      </c>
-      <c r="K89" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" s="2">
-        <v>45355</v>
-      </c>
-      <c r="D90" t="s">
-        <v>152</v>
-      </c>
-      <c r="E90" t="s">
-        <v>187</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I90" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>paiN</v>
-      </c>
-      <c r="J90" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ODDIK</v>
-      </c>
-      <c r="K90" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>159</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91" s="2">
-        <v>45355</v>
-      </c>
-      <c r="D91" t="s">
-        <v>186</v>
-      </c>
-      <c r="E91" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I91" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Legacy</v>
-      </c>
-      <c r="J91" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>M80</v>
-      </c>
-      <c r="K91" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-      <c r="C92" s="2">
-        <v>45355</v>
-      </c>
-      <c r="D92" t="s">
-        <v>184</v>
-      </c>
-      <c r="E92" t="s">
-        <v>41</v>
-      </c>
-      <c r="F92">
-        <v>2</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
       <c r="H92">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>COL</v>
+        <v>C9</v>
       </c>
       <c r="J92" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Liquid</v>
+        <v>Apeks</v>
       </c>
       <c r="K92" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.13043478260869557</v>
+      </c>
+      <c r="O92"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B93" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C93" s="2">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="D93" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="F93">
         <v>13</v>
       </c>
       <c r="G93">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H93">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -7640,38 +7796,40 @@
       </c>
       <c r="I93" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>The MongolZ</v>
+        <v>Mouz</v>
       </c>
       <c r="J93" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Myth Avenue</v>
+        <v>ECSTATIC</v>
       </c>
       <c r="K93" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.52941176470588225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.23809523809523814</v>
+      </c>
+      <c r="O93"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B94" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C94" s="2">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="D94" t="s">
-        <v>198</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G94">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H94">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -7679,32 +7837,34 @@
       </c>
       <c r="I94" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Grayhound Gaming</v>
+        <v>Vitality</v>
       </c>
       <c r="J94" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ATOX Esports</v>
+        <v>HEROIC</v>
       </c>
       <c r="K94" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.52941176470588225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.625</v>
+      </c>
+      <c r="O94"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B95" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="C95" s="2">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="D95" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
       <c r="F95">
         <v>13</v>
@@ -7718,35 +7878,37 @@
       </c>
       <c r="I95" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>TYLOO</v>
+        <v>Spirit</v>
       </c>
       <c r="J95" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>JiJieHao</v>
+        <v>Astralis</v>
       </c>
       <c r="K95" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
         <v>8.3333333333333259E-2</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O95"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="C96" s="2">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E96" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G96">
         <v>13</v>
@@ -7757,116 +7919,122 @@
       </c>
       <c r="I96" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Lynn Vision Gaming</v>
+        <v>ENCE</v>
       </c>
       <c r="J96" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Twisted Minds</v>
+        <v>Guild.E</v>
       </c>
       <c r="K96" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.30000000000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="O96"/>
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>202</v>
-      </c>
-      <c r="B97" s="10" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>172</v>
       </c>
       <c r="C97" s="2">
-        <v>45349</v>
+        <v>45341</v>
       </c>
       <c r="D97" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="E97" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H97">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>ATOX Esports</v>
+        <v>GL</v>
       </c>
       <c r="J97" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Myth Avenue</v>
+        <v>Pera</v>
       </c>
       <c r="K97" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.36842105263157898</v>
+      </c>
+      <c r="O97"/>
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>204</v>
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>172</v>
       </c>
       <c r="C98" s="2">
-        <v>45349</v>
+        <v>45341</v>
       </c>
       <c r="D98" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E98" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H98">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>JiJieHao</v>
+        <v>OG</v>
       </c>
       <c r="J98" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Twisted Minds</v>
+        <v>Preasy</v>
       </c>
       <c r="K98" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O98"/>
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>202</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B99" t="s">
+        <v>172</v>
       </c>
       <c r="C99" s="2">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="D99" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F99">
         <v>13</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H99">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
@@ -7874,74 +8042,78 @@
       </c>
       <c r="I99" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>The MongolZ</v>
+        <v>Monte</v>
       </c>
       <c r="J99" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Grayhound Gaming</v>
+        <v>Nexus</v>
       </c>
       <c r="K99" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.52941176470588225</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.18181818181818188</v>
+      </c>
+      <c r="O99"/>
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>202</v>
-      </c>
-      <c r="B100" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B100" t="s">
+        <v>173</v>
       </c>
       <c r="C100" s="2">
-        <v>45348</v>
+        <v>45342</v>
       </c>
       <c r="D100" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>38</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H100">
         <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>Lynn Vision Gaming</v>
+        <v>C9</v>
       </c>
       <c r="J100" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
-        <v>TYLOO</v>
+        <v>Vitality</v>
       </c>
       <c r="K100" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>0.36842105263157898</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O100"/>
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C101" s="2">
-        <v>45349</v>
+        <v>45342</v>
       </c>
       <c r="D101" t="s">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -7952,529 +8124,2454 @@
       </c>
       <c r="I101" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Mouz</v>
+      </c>
+      <c r="J101" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="K101" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+      <c r="O101"/>
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>158</v>
+      </c>
+      <c r="B102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>147</v>
+      </c>
+      <c r="F102">
+        <v>13</v>
+      </c>
+      <c r="G102">
+        <v>5</v>
+      </c>
+      <c r="H102">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I102" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
+      </c>
+      <c r="J102" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
+      </c>
+      <c r="K102" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="O102"/>
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>158</v>
+      </c>
+      <c r="B103" t="s">
+        <v>174</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D103" t="s">
+        <v>145</v>
+      </c>
+      <c r="E103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103">
+        <v>13</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+      <c r="H103">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I103" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ECSTATIC</v>
+      </c>
+      <c r="J103" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>OG</v>
+      </c>
+      <c r="K103" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+      <c r="O103"/>
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>174</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104">
+        <v>14</v>
+      </c>
+      <c r="G104">
+        <v>16</v>
+      </c>
+      <c r="H104">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I104" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J104" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="K104" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+      <c r="O104"/>
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105">
+        <v>7</v>
+      </c>
+      <c r="G105">
+        <v>13</v>
+      </c>
+      <c r="H105">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I105" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J105" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
+      </c>
+      <c r="K105" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="O105"/>
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D106" t="s">
+        <v>179</v>
+      </c>
+      <c r="E106" t="s">
+        <v>182</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I106" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Guild.E</v>
+      </c>
+      <c r="J106" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Nexus</v>
+      </c>
+      <c r="K106" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O106"/>
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>158</v>
+      </c>
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45342</v>
+      </c>
+      <c r="D107" t="s">
+        <v>181</v>
+      </c>
+      <c r="E107" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="H107">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I107" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Preasy</v>
+      </c>
+      <c r="J107" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Pera</v>
+      </c>
+      <c r="K107" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="O107"/>
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" t="s">
+        <v>176</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D108" t="s">
+        <v>180</v>
+      </c>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I108" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Apeks</v>
+      </c>
+      <c r="J108" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ECSTATIC</v>
+      </c>
+      <c r="K108" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>158</v>
+      </c>
+      <c r="B109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>20</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I109" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Vitality</v>
+      </c>
+      <c r="J109" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="K109" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>158</v>
+      </c>
+      <c r="B110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D110" t="s">
+        <v>42</v>
+      </c>
+      <c r="E110" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I110" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Spirit</v>
+      </c>
+      <c r="J110" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="K110" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D111" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" t="s">
+        <v>146</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+      <c r="H111">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I111" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
+      </c>
+      <c r="J111" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Monte</v>
+      </c>
+      <c r="K111" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>177</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I112" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="J112" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>OG</v>
+      </c>
+      <c r="K112" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>158</v>
+      </c>
+      <c r="B113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45343</v>
+      </c>
+      <c r="D113" t="s">
+        <v>179</v>
+      </c>
+      <c r="E113" t="s">
+        <v>183</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I113" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Guild.E</v>
+      </c>
+      <c r="J113" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Preasy</v>
+      </c>
+      <c r="K113" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>158</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45344</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>146</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I114" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ENCE</v>
+      </c>
+      <c r="J114" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Astralis</v>
+      </c>
+      <c r="K114" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>158</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45344</v>
+      </c>
+      <c r="D115" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" t="s">
+        <v>179</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I115" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ECSTATIC</v>
+      </c>
+      <c r="J115" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Guild.E</v>
+      </c>
+      <c r="K115" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>158</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45344</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>31</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I116" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>HEROIC</v>
+      </c>
+      <c r="J116" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>GL</v>
+      </c>
+      <c r="K116" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D117" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" t="s">
+        <v>154</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <v>9</v>
+      </c>
+      <c r="H117">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I117" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FURIA</v>
+      </c>
+      <c r="J117" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Nouns</v>
+      </c>
+      <c r="K117" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.18181818181818188</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>159</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D118" t="s">
+        <v>184</v>
+      </c>
+      <c r="E118" t="s">
+        <v>185</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118">
+        <v>6</v>
+      </c>
+      <c r="H118">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I118" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
+      </c>
+      <c r="J118" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Elevate</v>
+      </c>
+      <c r="K118" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.36842105263157898</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>159</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D119" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" t="s">
+        <v>187</v>
+      </c>
+      <c r="F119">
+        <v>13</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I119" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
+      </c>
+      <c r="J119" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ODDIK</v>
+      </c>
+      <c r="K119" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.13043478260869557</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>159</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D120" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" t="s">
+        <v>188</v>
+      </c>
+      <c r="F120">
+        <v>9</v>
+      </c>
+      <c r="G120">
+        <v>13</v>
+      </c>
+      <c r="H120">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I120" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BOSS</v>
+      </c>
+      <c r="J120" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>MIBR</v>
+      </c>
+      <c r="K120" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.18181818181818188</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>159</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D121" t="s">
+        <v>152</v>
+      </c>
+      <c r="E121" t="s">
+        <v>189</v>
+      </c>
+      <c r="F121">
+        <v>13</v>
+      </c>
+      <c r="G121">
+        <v>2</v>
+      </c>
+      <c r="H121">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I121" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>paiN</v>
+      </c>
+      <c r="J121" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Legacy</v>
+      </c>
+      <c r="K121" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D122" t="s">
+        <v>190</v>
+      </c>
+      <c r="E122" t="s">
+        <v>191</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I122" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>RED</v>
+      </c>
+      <c r="J122" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Wildcard</v>
+      </c>
+      <c r="K122" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>159</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D123" t="s">
+        <v>192</v>
+      </c>
+      <c r="E123" t="s">
+        <v>41</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+      <c r="G123">
+        <v>13</v>
+      </c>
+      <c r="H123">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I123" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Liquid</v>
+      </c>
+      <c r="J123" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BESTIA</v>
+      </c>
+      <c r="K123" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45352</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>193</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I124" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Imperial</v>
+      </c>
+      <c r="J124" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NRG</v>
+      </c>
+      <c r="K124" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.73333333333333339</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>171</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D125" t="s">
+        <v>184</v>
+      </c>
+      <c r="E125" t="s">
+        <v>188</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I125" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
+      </c>
+      <c r="J125" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BOSS</v>
+      </c>
+      <c r="K125" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.13043478260869557</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="s">
+        <v>190</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I126" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>paiN</v>
+      </c>
+      <c r="J126" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>RED</v>
+      </c>
+      <c r="K126" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.13043478260869557</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D127" t="s">
+        <v>10</v>
+      </c>
+      <c r="E127" t="s">
+        <v>41</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I127" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FURIA</v>
+      </c>
+      <c r="J127" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Liquid</v>
+      </c>
+      <c r="K127" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.13043478260869557</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D128" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>13</v>
+      </c>
+      <c r="H128">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I128" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Imperial</v>
+      </c>
+      <c r="J128" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
+      </c>
+      <c r="K128" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D129" t="s">
+        <v>153</v>
+      </c>
+      <c r="E129" t="s">
+        <v>193</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I129" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>MIBR</v>
+      </c>
+      <c r="J129" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>NRG</v>
+      </c>
+      <c r="K129" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D130" t="s">
+        <v>192</v>
+      </c>
+      <c r="E130" t="s">
+        <v>191</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>2</v>
+      </c>
+      <c r="H130">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I130" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Wildcard</v>
+      </c>
+      <c r="J130" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BESTIA</v>
+      </c>
+      <c r="K130" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>172</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D131" t="s">
+        <v>154</v>
+      </c>
+      <c r="E131" t="s">
+        <v>189</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I131" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Legacy</v>
+      </c>
+      <c r="J131" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Nouns</v>
+      </c>
+      <c r="K131" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45353</v>
+      </c>
+      <c r="D132" t="s">
+        <v>185</v>
+      </c>
+      <c r="E132" t="s">
+        <v>187</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="H132">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I132" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ODDIK</v>
+      </c>
+      <c r="J132" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Elevate</v>
+      </c>
+      <c r="K132" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>159</v>
+      </c>
+      <c r="B133" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D133" t="s">
+        <v>152</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I133" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Imperial</v>
+      </c>
+      <c r="J133" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>paiN</v>
+      </c>
+      <c r="K133" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>173</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D134" t="s">
+        <v>10</v>
+      </c>
+      <c r="E134" t="s">
+        <v>184</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I134" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>FURIA</v>
+      </c>
+      <c r="J134" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
+      </c>
+      <c r="K134" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D135" t="s">
+        <v>186</v>
+      </c>
+      <c r="E135" t="s">
+        <v>191</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I135" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
+      </c>
+      <c r="J135" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Wildcard</v>
+      </c>
+      <c r="K135" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>175</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D136" t="s">
+        <v>188</v>
+      </c>
+      <c r="E136" t="s">
+        <v>41</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="H136">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I136" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Liquid</v>
+      </c>
+      <c r="J136" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>BOSS</v>
+      </c>
+      <c r="K136" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>175</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D137" t="s">
+        <v>190</v>
+      </c>
+      <c r="E137" t="s">
+        <v>187</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I137" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ODDIK</v>
+      </c>
+      <c r="J137" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>RED</v>
+      </c>
+      <c r="K137" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>175</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45354</v>
+      </c>
+      <c r="D138" t="s">
+        <v>189</v>
+      </c>
+      <c r="E138" t="s">
+        <v>153</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I138" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Legacy</v>
+      </c>
+      <c r="J138" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>MIBR</v>
+      </c>
+      <c r="K138" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D139" t="s">
+        <v>152</v>
+      </c>
+      <c r="E139" t="s">
+        <v>187</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I139" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>paiN</v>
+      </c>
+      <c r="J139" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ODDIK</v>
+      </c>
+      <c r="K139" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D140" t="s">
+        <v>186</v>
+      </c>
+      <c r="E140" t="s">
+        <v>189</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>2</v>
+      </c>
+      <c r="H140">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I140" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Legacy</v>
+      </c>
+      <c r="J140" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>M80</v>
+      </c>
+      <c r="K140" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>159</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45355</v>
+      </c>
+      <c r="D141" t="s">
+        <v>184</v>
+      </c>
+      <c r="E141" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I141" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>COL</v>
+      </c>
+      <c r="J141" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Liquid</v>
+      </c>
+      <c r="K141" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" t="s">
+        <v>203</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D142" t="s">
+        <v>194</v>
+      </c>
+      <c r="E142" t="s">
+        <v>201</v>
+      </c>
+      <c r="F142">
+        <v>13</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I142" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>The MongolZ</v>
+      </c>
+      <c r="J142" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Myth Avenue</v>
+      </c>
+      <c r="K142" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.52941176470588225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>202</v>
+      </c>
+      <c r="B143" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D143" t="s">
+        <v>198</v>
+      </c>
+      <c r="E143" t="s">
+        <v>197</v>
+      </c>
+      <c r="F143">
+        <v>4</v>
+      </c>
+      <c r="G143">
+        <v>13</v>
+      </c>
+      <c r="H143">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I143" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Grayhound Gaming</v>
+      </c>
+      <c r="J143" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>ATOX Esports</v>
       </c>
-      <c r="J101" s="8" t="str">
-        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+      <c r="K143" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.52941176470588225</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>202</v>
+      </c>
+      <c r="B144" t="s">
+        <v>203</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D144" t="s">
+        <v>196</v>
+      </c>
+      <c r="E144" t="s">
+        <v>199</v>
+      </c>
+      <c r="F144">
+        <v>13</v>
+      </c>
+      <c r="G144">
+        <v>11</v>
+      </c>
+      <c r="H144">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I144" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>TYLOO</v>
       </c>
-      <c r="K101" s="5">
+      <c r="J144" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>JiJieHao</v>
+      </c>
+      <c r="K144" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>8.3333333333333259E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>202</v>
+      </c>
+      <c r="B145" t="s">
+        <v>203</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D145" t="s">
+        <v>200</v>
+      </c>
+      <c r="E145" t="s">
+        <v>195</v>
+      </c>
+      <c r="F145">
+        <v>7</v>
+      </c>
+      <c r="G145">
+        <v>13</v>
+      </c>
+      <c r="H145">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I145" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Lynn Vision Gaming</v>
+      </c>
+      <c r="J145" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Twisted Minds</v>
+      </c>
+      <c r="K145" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45349</v>
+      </c>
+      <c r="D146" t="s">
+        <v>201</v>
+      </c>
+      <c r="E146" t="s">
+        <v>198</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I146" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ATOX Esports</v>
+      </c>
+      <c r="J146" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Myth Avenue</v>
+      </c>
+      <c r="K146" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>202</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45349</v>
+      </c>
+      <c r="D147" t="s">
+        <v>199</v>
+      </c>
+      <c r="E147" t="s">
+        <v>200</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I147" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>JiJieHao</v>
+      </c>
+      <c r="J147" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Twisted Minds</v>
+      </c>
+      <c r="K147" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>202</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D148" t="s">
+        <v>194</v>
+      </c>
+      <c r="E148" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148">
+        <v>13</v>
+      </c>
+      <c r="G148">
+        <v>4</v>
+      </c>
+      <c r="H148">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I148" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>The MongolZ</v>
+      </c>
+      <c r="J148" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Grayhound Gaming</v>
+      </c>
+      <c r="K148" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.52941176470588225</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45348</v>
+      </c>
+      <c r="D149" t="s">
+        <v>196</v>
+      </c>
+      <c r="E149" t="s">
+        <v>195</v>
+      </c>
+      <c r="F149">
+        <v>6</v>
+      </c>
+      <c r="G149">
+        <v>13</v>
+      </c>
+      <c r="H149">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I149" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>Lynn Vision Gaming</v>
+      </c>
+      <c r="J149" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>TYLOO</v>
+      </c>
+      <c r="K149" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>0.36842105263157898</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>202</v>
+      </c>
+      <c r="B150" t="s">
+        <v>172</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45349</v>
+      </c>
+      <c r="D150" t="s">
+        <v>196</v>
+      </c>
+      <c r="E150" t="s">
+        <v>198</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>2</v>
+      </c>
+      <c r="H150">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I150" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>ATOX Esports</v>
+      </c>
+      <c r="J150" s="8" t="str">
+        <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
+        <v>TYLOO</v>
+      </c>
+      <c r="K150" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B151" t="s">
         <v>172</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C151" s="2">
         <v>45349</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D151" t="s">
         <v>197</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E151" t="s">
         <v>199</v>
       </c>
-      <c r="F102">
+      <c r="F151">
         <v>2</v>
       </c>
-      <c r="G102">
+      <c r="G151">
         <v>0</v>
       </c>
-      <c r="H102">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I102" t="str">
+      <c r="H151">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I151" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Grayhound Gaming</v>
       </c>
-      <c r="J102" s="8" t="str">
+      <c r="J151" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>JiJieHao</v>
       </c>
-      <c r="K102" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="K151" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>202</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B152" t="s">
         <v>205</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C152" s="2">
         <v>45350</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D152" t="s">
         <v>198</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E152" t="s">
         <v>197</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
         <v>2</v>
       </c>
-      <c r="H103">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I103" t="str">
+      <c r="H152">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I152" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Grayhound Gaming</v>
       </c>
-      <c r="J103" s="8" t="str">
+      <c r="J152" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>ATOX Esports</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K152" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>202</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B153" t="s">
         <v>173</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C153" s="2">
         <v>45350</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D153" t="s">
         <v>194</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E153" t="s">
         <v>195</v>
       </c>
-      <c r="F104">
+      <c r="F153">
         <v>2</v>
       </c>
-      <c r="G104">
+      <c r="G153">
         <v>0</v>
       </c>
-      <c r="H104">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I104" t="str">
+      <c r="H153">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I153" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>The MongolZ</v>
       </c>
-      <c r="J104" s="8" t="str">
+      <c r="J153" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Lynn Vision Gaming</v>
       </c>
-      <c r="K104" s="5">
-        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="K153" s="5">
+        <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>202</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B154" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C154" s="2">
         <v>45350</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D154" t="s">
         <v>195</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E154" t="s">
         <v>197</v>
       </c>
-      <c r="F105">
+      <c r="F154">
         <v>2</v>
       </c>
-      <c r="G105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
-        <v>3</v>
-      </c>
-      <c r="I105" t="str">
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <f>IF(MAX(Matches[[#This Row],[A Score]:[B Score]])&lt;3,3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I154" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&gt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Lynn Vision Gaming</v>
       </c>
-      <c r="J105" s="8" t="str">
+      <c r="J154" s="8" t="str">
         <f>IF(Matches[[#This Row],[A Score]]&lt;Matches[[#This Row],[B Score]],Matches[[#This Row],[Team A]],Matches[[#This Row],[Team B]])</f>
         <v>Grayhound Gaming</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K154" s="5">
         <f>(MAX(Matches[[#This Row],[A Score]:[B Score]]) / SUM(Matches[[#This Row],[A Score]:[B Score]])-0.5)*2</f>
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="2"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="2"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="5"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C108" s="2"/>
-      <c r="J108"/>
-      <c r="K108" s="5"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C109" s="2"/>
-      <c r="J109"/>
-      <c r="K109" s="5"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C110" s="2"/>
-      <c r="J110"/>
-      <c r="K110" s="5"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C111" s="2"/>
-      <c r="J111"/>
-      <c r="K111" s="5"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C112" s="2"/>
-      <c r="J112"/>
-      <c r="K112" s="5"/>
-    </row>
-    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C113" s="2"/>
-      <c r="J113"/>
-      <c r="K113" s="5"/>
-    </row>
-    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
-      <c r="J114"/>
-      <c r="K114" s="5"/>
-    </row>
-    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C115" s="2"/>
-      <c r="J115"/>
-      <c r="K115" s="5"/>
-    </row>
-    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C116" s="2"/>
-      <c r="J116"/>
-      <c r="K116" s="5"/>
-    </row>
-    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C117" s="2"/>
-      <c r="J117"/>
-      <c r="K117" s="5"/>
-    </row>
-    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C118" s="2"/>
-      <c r="J118"/>
-      <c r="K118" s="5"/>
-    </row>
-    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="J119"/>
-      <c r="K119" s="5"/>
-    </row>
-    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C120" s="2"/>
-      <c r="J120"/>
-      <c r="K120" s="5"/>
-    </row>
-    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C121" s="2"/>
-      <c r="J121"/>
-      <c r="K121" s="5"/>
-    </row>
-    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="2"/>
-      <c r="J122"/>
-      <c r="K122" s="5"/>
-    </row>
-    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="2"/>
-      <c r="J123"/>
-      <c r="K123" s="5"/>
-    </row>
-    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C124" s="2"/>
-      <c r="J124"/>
-      <c r="K124" s="5"/>
-    </row>
-    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C125" s="2"/>
-      <c r="J125"/>
-      <c r="K125" s="5"/>
-    </row>
-    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C126" s="2"/>
-      <c r="J126"/>
-      <c r="K126" s="5"/>
-    </row>
-    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="2"/>
-      <c r="J127"/>
-      <c r="K127" s="5"/>
-    </row>
-    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="2"/>
-      <c r="J128"/>
-      <c r="K128" s="5"/>
-    </row>
-    <row r="129" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C129" s="2"/>
-      <c r="J129"/>
-      <c r="K129" s="5"/>
-    </row>
-    <row r="130" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C130" s="2"/>
-      <c r="J130"/>
-      <c r="K130" s="5"/>
-    </row>
-    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C131" s="2"/>
-      <c r="J131"/>
-      <c r="K131" s="5"/>
-    </row>
-    <row r="132" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C132" s="2"/>
-      <c r="J132"/>
-      <c r="K132" s="5"/>
-    </row>
-    <row r="133" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C133" s="2"/>
-      <c r="J133"/>
-      <c r="K133" s="5"/>
-    </row>
-    <row r="134" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C134" s="2"/>
-      <c r="J134"/>
-      <c r="K134" s="5"/>
-    </row>
-    <row r="135" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C135" s="2"/>
-      <c r="J135"/>
-      <c r="K135" s="5"/>
-    </row>
-    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C136" s="2"/>
-      <c r="J136"/>
-      <c r="K136" s="5"/>
-    </row>
-    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C137" s="2"/>
-      <c r="J137"/>
-      <c r="K137" s="5"/>
-    </row>
-    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C138" s="2"/>
-      <c r="J138"/>
-      <c r="K138" s="5"/>
-    </row>
-    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C139" s="2"/>
-      <c r="J139"/>
-      <c r="K139" s="5"/>
-    </row>
-    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C140" s="2"/>
-      <c r="J140"/>
-      <c r="K140" s="5"/>
-    </row>
-    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C141" s="2"/>
-      <c r="J141"/>
-      <c r="K141" s="5"/>
-    </row>
-    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C142" s="2"/>
-      <c r="J142"/>
-      <c r="K142" s="5"/>
-    </row>
-    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C143" s="2"/>
-      <c r="J143"/>
-      <c r="K143" s="5"/>
-    </row>
-    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C144" s="2"/>
-      <c r="J144"/>
-      <c r="K144" s="5"/>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C145" s="2"/>
-      <c r="J145"/>
-      <c r="K145" s="5"/>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C146" s="2"/>
-      <c r="J146"/>
-      <c r="K146" s="5"/>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
-      <c r="J147"/>
-      <c r="K147" s="5"/>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C148" s="2"/>
-      <c r="J148"/>
-      <c r="K148" s="5"/>
-    </row>
-    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C149" s="2"/>
-      <c r="J149"/>
-      <c r="K149" s="5"/>
-    </row>
-    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C150" s="2"/>
-      <c r="J150"/>
-      <c r="K150" s="5"/>
-    </row>
-    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C151" s="2"/>
-      <c r="J151"/>
-      <c r="K151" s="5"/>
-    </row>
-    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C152" s="2"/>
-      <c r="J152"/>
-      <c r="K152" s="5"/>
-    </row>
-    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C153" s="2"/>
-      <c r="J153"/>
-      <c r="K153" s="5"/>
-    </row>
-    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C154" s="2"/>
-      <c r="J154"/>
-      <c r="K154" s="5"/>
-    </row>
-    <row r="155" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
       <c r="C155" s="2"/>
-      <c r="J155"/>
+      <c r="J155" s="8"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
       <c r="C156" s="2"/>
-      <c r="J156"/>
+      <c r="J156" s="8"/>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="J157"/>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="J158"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="J159"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="J160"/>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="J161"/>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="J162"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
-      <c r="J163" s="8"/>
+      <c r="J163"/>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
-      <c r="J164" s="8"/>
+      <c r="J164"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
-      <c r="J165" s="8"/>
+      <c r="J165"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
-      <c r="J166" s="8"/>
+      <c r="J166"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
-      <c r="J167" s="8"/>
+      <c r="J167"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
-      <c r="J168" s="8"/>
+      <c r="J168"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
-      <c r="J169" s="8"/>
+      <c r="J169"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
-      <c r="J170" s="8"/>
+      <c r="J170"/>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
-      <c r="J171" s="8"/>
+      <c r="J171"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
-      <c r="J172" s="8"/>
+      <c r="J172"/>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="10"/>
-      <c r="B173" s="10"/>
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
-      <c r="J173" s="8"/>
+      <c r="J173"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="10"/>
-      <c r="B174" s="10"/>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
-      <c r="J174" s="8"/>
+      <c r="J174"/>
       <c r="K174" s="5"/>
+    </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C175" s="2"/>
+      <c r="J175"/>
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C176" s="2"/>
+      <c r="J176"/>
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C177" s="2"/>
+      <c r="J177"/>
+      <c r="K177" s="5"/>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C178" s="2"/>
+      <c r="J178"/>
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C179" s="2"/>
+      <c r="J179"/>
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C180" s="2"/>
+      <c r="J180"/>
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="2"/>
+      <c r="J181"/>
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="2"/>
+      <c r="J182"/>
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C183" s="2"/>
+      <c r="J183"/>
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C184" s="2"/>
+      <c r="J184"/>
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C185" s="2"/>
+      <c r="J185"/>
+      <c r="K185" s="5"/>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+      <c r="J186"/>
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C187" s="2"/>
+      <c r="J187"/>
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C188" s="2"/>
+      <c r="J188"/>
+      <c r="K188" s="5"/>
+    </row>
+    <row r="189" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C189" s="2"/>
+      <c r="J189"/>
+      <c r="K189" s="5"/>
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C190" s="2"/>
+      <c r="J190"/>
+      <c r="K190" s="5"/>
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C191" s="2"/>
+      <c r="J191"/>
+      <c r="K191" s="5"/>
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C192" s="2"/>
+      <c r="J192"/>
+      <c r="K192" s="5"/>
+    </row>
+    <row r="193" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C193" s="2"/>
+      <c r="J193"/>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C194" s="2"/>
+      <c r="J194"/>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C195" s="2"/>
+      <c r="J195"/>
+      <c r="K195" s="5"/>
+    </row>
+    <row r="196" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C196" s="2"/>
+      <c r="J196"/>
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C197" s="2"/>
+      <c r="J197"/>
+      <c r="K197" s="5"/>
+    </row>
+    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C198" s="2"/>
+      <c r="J198"/>
+      <c r="K198" s="5"/>
+    </row>
+    <row r="199" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C199" s="2"/>
+      <c r="J199"/>
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C200" s="2"/>
+      <c r="J200"/>
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C201" s="2"/>
+      <c r="J201"/>
+      <c r="K201" s="5"/>
+    </row>
+    <row r="202" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C202" s="2"/>
+      <c r="J202"/>
+      <c r="K202" s="5"/>
+    </row>
+    <row r="203" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+      <c r="J203"/>
+      <c r="K203" s="5"/>
+    </row>
+    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C204" s="2"/>
+      <c r="J204"/>
+      <c r="K204" s="5"/>
+    </row>
+    <row r="205" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+      <c r="J205"/>
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C206" s="2"/>
+      <c r="J206"/>
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C207" s="2"/>
+      <c r="J207"/>
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C208" s="2"/>
+      <c r="J208"/>
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C209" s="2"/>
+      <c r="J209"/>
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C210" s="2"/>
+      <c r="J210"/>
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C211" s="2"/>
+      <c r="J211"/>
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C212" s="2"/>
+      <c r="J212" s="8"/>
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C213" s="2"/>
+      <c r="J213" s="8"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C214" s="2"/>
+      <c r="J214" s="8"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C215" s="2"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C216" s="2"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C217" s="2"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C218" s="2"/>
+      <c r="J218" s="8"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C219" s="2"/>
+      <c r="J219" s="8"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C220" s="2"/>
+      <c r="J220" s="8"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C221" s="2"/>
+      <c r="J221" s="8"/>
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="2"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="2"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="5"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H105" xr:uid="{DE25F8EF-D2F5-4312-838F-3D4636B1E56C}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H154" xr:uid="{DE25F8EF-D2F5-4312-838F-3D4636B1E56C}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
@@ -8486,17 +10583,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FB7C9C9-81AE-4A45-AB89-7469F1302569}">
+          <x14:formula1>
+            <xm:f>Stages!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A154</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B4070CFB-BA2B-439A-92F7-7DEE1DCE81D3}">
           <x14:formula1>
             <xm:f>Teams!$A$2:$A$67</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:E173</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2FB7C9C9-81AE-4A45-AB89-7469F1302569}">
-          <x14:formula1>
-            <xm:f>Stages!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A105</xm:sqref>
+          <xm:sqref>D2:E222</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
